--- a/biology/Médecine/Muscle_fléchisseur_ulnaire_du_carpe/Muscle_fléchisseur_ulnaire_du_carpe.xlsx
+++ b/biology/Médecine/Muscle_fléchisseur_ulnaire_du_carpe/Muscle_fléchisseur_ulnaire_du_carpe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_fl%C3%A9chisseur_ulnaire_du_carpe</t>
+          <t>Muscle_fléchisseur_ulnaire_du_carpe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle fléchisseur ulnaire du carpe (anciennement appelé muscle cubital antérieur) est un muscle large et épais de l'avant-bras et il en forme le relief médial. Il se situe dans le plan superficiel de la loge antebrachiale antérieure[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle fléchisseur ulnaire du carpe (anciennement appelé muscle cubital antérieur) est un muscle large et épais de l'avant-bras et il en forme le relief médial. Il se situe dans le plan superficiel de la loge antebrachiale antérieure.
 Il est constitué de deux chefs : le chef huméral du muscle fléchisseur ulnaire du carpe et le chef ulnaire du muscle fléchisseur ulnaire (ou chef cubital du muscle cubital antérieur ou chef cubital du muscle cubital interne).
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_fl%C3%A9chisseur_ulnaire_du_carpe</t>
+          <t>Muscle_fléchisseur_ulnaire_du_carpe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chef huméral du muscle fléchisse ur ulnaire du carpe
-Le chef huméral du muscle fléchisseur ulnaire du carpe se fixe par l'intermédiaire du tendon commun des fléchisseurs à l'épicondyle médial de l'humérus.
-Chef ulnaire du muscle fléchisseur ulnaire du carpe
-le chef ulnaire du muscle fléchisseur ulnaire du carpe se fixe sur le bord médial de l'olécrane, sur la face médiale du processus coronoïde de l'ulna et aux deux-tiers proximaux du bord postérieur de l'ulna.
+          <t>Chef huméral du muscle fléchisse ur ulnaire du carpe</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chef huméral du muscle fléchisseur ulnaire du carpe se fixe par l'intermédiaire du tendon commun des fléchisseurs à l'épicondyle médial de l'humérus.
 </t>
         </is>
       </c>
@@ -528,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_fl%C3%A9chisseur_ulnaire_du_carpe</t>
+          <t>Muscle_fléchisseur_ulnaire_du_carpe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Trajet</t>
+          <t>Origine</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les deux chefs sont liés par une arcade fibreuse :  l'arcade d'Osborne[2]. Les deux chefs fusionnent et le corps du muscle descend verticalement entourant le nerf et l'artère ulnaire.
+          <t>Chef ulnaire du muscle fléchisseur ulnaire du carpe</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">le chef ulnaire du muscle fléchisseur ulnaire du carpe se fixe sur le bord médial de l'olécrane, sur la face médiale du processus coronoïde de l'ulna et aux deux-tiers proximaux du bord postérieur de l'ulna.
 </t>
         </is>
       </c>
@@ -559,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_fl%C3%A9chisseur_ulnaire_du_carpe</t>
+          <t>Muscle_fléchisseur_ulnaire_du_carpe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,12 +595,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Terminaison</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle fléchisseur ulnaire du carpe se termine sur le pisiforme et envoie des expansions à l'hamulus de l'os hamatum et à la face palmaire des bases des 4e et 5e métacarpiens.
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux chefs sont liés par une arcade fibreuse :  l'arcade d'Osborne. Les deux chefs fusionnent et le corps du muscle descend verticalement entourant le nerf et l'artère ulnaire.
 </t>
         </is>
       </c>
@@ -590,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_fl%C3%A9chisseur_ulnaire_du_carpe</t>
+          <t>Muscle_fléchisseur_ulnaire_du_carpe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,12 +628,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Innervation</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est innervé par le nerf du muscle fléchisseur ulnaire du carpe, branche du nerf ulnaire qui passe directement sous la masse musculaire issu majoritairement des racines (C7)-C8-(T1)[3].
+          <t>Terminaison</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle fléchisseur ulnaire du carpe se termine sur le pisiforme et envoie des expansions à l'hamulus de l'os hamatum et à la face palmaire des bases des 4e et 5e métacarpiens.
 </t>
         </is>
       </c>
@@ -621,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscle_fl%C3%A9chisseur_ulnaire_du_carpe</t>
+          <t>Muscle_fléchisseur_ulnaire_du_carpe</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,10 +661,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est innervé par le nerf du muscle fléchisseur ulnaire du carpe, branche du nerf ulnaire qui passe directement sous la masse musculaire issu majoritairement des racines (C7)-C8-(T1).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Muscle_fléchisseur_ulnaire_du_carpe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_fl%C3%A9chisseur_ulnaire_du_carpe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce muscle est principalement fléchisseur et adducteur du poignet. On lui décrit aussi une légère supination du carpe.
 </t>
